--- a/Data/final.xlsx
+++ b/Data/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\0.EPFL\fall_23\DH-405_Foundations_DH\FDH-G8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2916F7E1-E972-42B1-8FAF-00D6D2F47742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD496F-2A8E-4CE5-BE4B-7316FED5FB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fin!$A$1:$N$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fin!$A$1:$O$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -48,7 +48,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="119">
+  <futureMetadata name="XLRICHVALUE" count="60">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -469,421 +469,8 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="60"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="61"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="62"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="63"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="64"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="65"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="66"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="67"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="68"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="69"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="70"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="71"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="72"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="73"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="74"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="75"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="76"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="77"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="78"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="79"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="80"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="81"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="82"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="83"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="84"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="85"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="86"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="87"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="88"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="89"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="90"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="91"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="92"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="93"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="94"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="95"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="96"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="97"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="98"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="99"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="100"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="101"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="102"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="103"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="104"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="105"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="106"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="107"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="108"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="109"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="110"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="111"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="112"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="113"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="114"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="115"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="116"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="117"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="118"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="119">
+  <valueMetadata count="60">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -1064,189 +651,12 @@
     <bk>
       <rc t="1" v="59"/>
     </bk>
-    <bk>
-      <rc t="1" v="60"/>
-    </bk>
-    <bk>
-      <rc t="1" v="61"/>
-    </bk>
-    <bk>
-      <rc t="1" v="62"/>
-    </bk>
-    <bk>
-      <rc t="1" v="63"/>
-    </bk>
-    <bk>
-      <rc t="1" v="64"/>
-    </bk>
-    <bk>
-      <rc t="1" v="65"/>
-    </bk>
-    <bk>
-      <rc t="1" v="66"/>
-    </bk>
-    <bk>
-      <rc t="1" v="67"/>
-    </bk>
-    <bk>
-      <rc t="1" v="68"/>
-    </bk>
-    <bk>
-      <rc t="1" v="69"/>
-    </bk>
-    <bk>
-      <rc t="1" v="70"/>
-    </bk>
-    <bk>
-      <rc t="1" v="71"/>
-    </bk>
-    <bk>
-      <rc t="1" v="72"/>
-    </bk>
-    <bk>
-      <rc t="1" v="73"/>
-    </bk>
-    <bk>
-      <rc t="1" v="74"/>
-    </bk>
-    <bk>
-      <rc t="1" v="75"/>
-    </bk>
-    <bk>
-      <rc t="1" v="76"/>
-    </bk>
-    <bk>
-      <rc t="1" v="77"/>
-    </bk>
-    <bk>
-      <rc t="1" v="78"/>
-    </bk>
-    <bk>
-      <rc t="1" v="79"/>
-    </bk>
-    <bk>
-      <rc t="1" v="80"/>
-    </bk>
-    <bk>
-      <rc t="1" v="81"/>
-    </bk>
-    <bk>
-      <rc t="1" v="82"/>
-    </bk>
-    <bk>
-      <rc t="1" v="83"/>
-    </bk>
-    <bk>
-      <rc t="1" v="84"/>
-    </bk>
-    <bk>
-      <rc t="1" v="85"/>
-    </bk>
-    <bk>
-      <rc t="1" v="86"/>
-    </bk>
-    <bk>
-      <rc t="1" v="87"/>
-    </bk>
-    <bk>
-      <rc t="1" v="88"/>
-    </bk>
-    <bk>
-      <rc t="1" v="89"/>
-    </bk>
-    <bk>
-      <rc t="1" v="90"/>
-    </bk>
-    <bk>
-      <rc t="1" v="91"/>
-    </bk>
-    <bk>
-      <rc t="1" v="92"/>
-    </bk>
-    <bk>
-      <rc t="1" v="93"/>
-    </bk>
-    <bk>
-      <rc t="1" v="94"/>
-    </bk>
-    <bk>
-      <rc t="1" v="95"/>
-    </bk>
-    <bk>
-      <rc t="1" v="96"/>
-    </bk>
-    <bk>
-      <rc t="1" v="97"/>
-    </bk>
-    <bk>
-      <rc t="1" v="98"/>
-    </bk>
-    <bk>
-      <rc t="1" v="99"/>
-    </bk>
-    <bk>
-      <rc t="1" v="100"/>
-    </bk>
-    <bk>
-      <rc t="1" v="101"/>
-    </bk>
-    <bk>
-      <rc t="1" v="102"/>
-    </bk>
-    <bk>
-      <rc t="1" v="103"/>
-    </bk>
-    <bk>
-      <rc t="1" v="104"/>
-    </bk>
-    <bk>
-      <rc t="1" v="105"/>
-    </bk>
-    <bk>
-      <rc t="1" v="106"/>
-    </bk>
-    <bk>
-      <rc t="1" v="107"/>
-    </bk>
-    <bk>
-      <rc t="1" v="108"/>
-    </bk>
-    <bk>
-      <rc t="1" v="109"/>
-    </bk>
-    <bk>
-      <rc t="1" v="110"/>
-    </bk>
-    <bk>
-      <rc t="1" v="111"/>
-    </bk>
-    <bk>
-      <rc t="1" v="112"/>
-    </bk>
-    <bk>
-      <rc t="1" v="113"/>
-    </bk>
-    <bk>
-      <rc t="1" v="114"/>
-    </bk>
-    <bk>
-      <rc t="1" v="115"/>
-    </bk>
-    <bk>
-      <rc t="1" v="116"/>
-    </bk>
-    <bk>
-      <rc t="1" v="117"/>
-    </bk>
-    <bk>
-      <rc t="1" v="118"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="687">
   <si>
     <t>Location JSON Name</t>
   </si>
@@ -3304,6 +2714,9 @@
   </si>
   <si>
     <t>Visited different parts of Syria, experiencing its abundant fruits and vegetation.</t>
+  </si>
+  <si>
+    <t>visual</t>
   </si>
 </sst>
 </file>
@@ -8237,365 +7650,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="119">
-  <rv s="0">
-    <v>0</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>4</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="1">
-    <v>2</v>
-    <v>10</v>
-  </rv>
-  <rv s="0">
-    <v>5</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>6</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>7</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>8</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>9</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>10</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>11</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>12</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>13</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>14</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>15</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>16</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>17</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>18</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>19</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>20</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>21</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>22</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>23</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>24</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>25</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>26</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>27</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>28</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>29</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>30</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>31</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>32</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>33</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>34</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>35</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>36</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>37</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>38</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>39</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>40</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>41</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>42</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>43</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>44</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>45</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>46</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>47</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>48</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>49</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>50</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>51</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>52</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>53</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>54</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>55</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>56</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>57</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>58</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="60">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -8625,6 +7680,10 @@
     <v>5</v>
     <v>0</v>
     <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>2</v>
+    <v>10</v>
   </rv>
   <rv s="0">
     <v>5</v>
@@ -9255,9 +8314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9314,6 +8371,9 @@
       <c r="M1" s="11" t="s">
         <v>466</v>
       </c>
+      <c r="N1" s="11" t="s">
+        <v>686</v>
+      </c>
       <c r="O1" s="17" t="s">
         <v>505</v>
       </c>
@@ -9350,7 +8410,6 @@
         <v>8</v>
       </c>
       <c r="N2" t="e" vm="1">
-        <f>_xlfn.IMAGE(K2,,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9386,7 +8445,6 @@
         <v>11</v>
       </c>
       <c r="N3" t="e" vm="2">
-        <f t="shared" ref="N3:N66" si="0">_xlfn.IMAGE(K3,,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9422,7 +8480,6 @@
         <v>15</v>
       </c>
       <c r="N4" t="e" vm="3">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9455,7 +8512,6 @@
         <v>19</v>
       </c>
       <c r="N5" t="e" vm="4">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9491,7 +8547,6 @@
         <v>22</v>
       </c>
       <c r="N6" t="e" vm="5">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9524,7 +8579,6 @@
         <v>25</v>
       </c>
       <c r="N7" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9566,7 +8620,6 @@
         <v>1</v>
       </c>
       <c r="N8" t="e" vm="7">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O8">
@@ -9605,7 +8658,6 @@
         <v>15</v>
       </c>
       <c r="N9" t="e" vm="3">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9641,7 +8693,6 @@
         <v>32</v>
       </c>
       <c r="N10" t="e" vm="8">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9677,7 +8728,6 @@
         <v>36</v>
       </c>
       <c r="N11" t="e" vm="9">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9704,7 +8754,6 @@
         <v>367</v>
       </c>
       <c r="N12" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9737,7 +8786,6 @@
         <v>40</v>
       </c>
       <c r="N13" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9773,7 +8821,6 @@
         <v>44</v>
       </c>
       <c r="N14" t="e" vm="10">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9806,7 +8853,6 @@
         <v>47</v>
       </c>
       <c r="N15" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9842,7 +8888,6 @@
         <v>50</v>
       </c>
       <c r="N16" t="e" vm="11">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9866,7 +8911,6 @@
         <v>528</v>
       </c>
       <c r="N17" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9899,7 +8943,6 @@
         <v>54</v>
       </c>
       <c r="N18" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9935,7 +8978,6 @@
         <v>58</v>
       </c>
       <c r="N19" t="e" vm="12">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9962,7 +9004,6 @@
         <v>371</v>
       </c>
       <c r="N20" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10001,7 +9042,6 @@
         <v>468</v>
       </c>
       <c r="N21" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10028,7 +9068,6 @@
         <v>364</v>
       </c>
       <c r="N22" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10055,7 +9094,6 @@
         <v>372</v>
       </c>
       <c r="N23" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10097,11 +9135,10 @@
         <v>1</v>
       </c>
       <c r="N24" t="e" vm="7">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -10142,11 +9179,10 @@
         <v>1</v>
       </c>
       <c r="N25" t="e" vm="7">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -10187,7 +9223,6 @@
         <v>1</v>
       </c>
       <c r="N26" t="e" vm="13">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O26">
@@ -10232,7 +9267,6 @@
         <v>1</v>
       </c>
       <c r="N27" t="e" vm="14">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O27">
@@ -10277,7 +9311,6 @@
         <v>1</v>
       </c>
       <c r="N28" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10313,7 +9346,6 @@
         <v>77</v>
       </c>
       <c r="N29" t="e" vm="15">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10355,7 +9387,6 @@
         <v>1</v>
       </c>
       <c r="N30" t="e" vm="16">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O30">
@@ -10388,7 +9419,6 @@
         <v>470</v>
       </c>
       <c r="N31" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10421,7 +9451,6 @@
         <v>86</v>
       </c>
       <c r="N32" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10454,7 +9483,6 @@
         <v>87</v>
       </c>
       <c r="N33" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10478,7 +9506,6 @@
         <v>545</v>
       </c>
       <c r="N34" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10523,7 +9550,6 @@
         <v>1</v>
       </c>
       <c r="N35" t="e" vm="17">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O35">
@@ -10568,7 +9594,6 @@
         <v>472</v>
       </c>
       <c r="N36" t="e" vm="18">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O36">
@@ -10598,7 +9623,6 @@
         <v>374</v>
       </c>
       <c r="N37" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10631,7 +9655,6 @@
         <v>473</v>
       </c>
       <c r="N38" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10676,7 +9699,6 @@
         <v>1</v>
       </c>
       <c r="N39" t="e" vm="19">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O39">
@@ -10724,7 +9746,6 @@
         <v>1</v>
       </c>
       <c r="N40" t="e" vm="20">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O40">
@@ -10769,7 +9790,6 @@
         <v>1</v>
       </c>
       <c r="N41" t="e" vm="21">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O41">
@@ -10814,11 +9834,10 @@
         <v>1</v>
       </c>
       <c r="N42" t="e" vm="21">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -10859,7 +9878,6 @@
         <v>1</v>
       </c>
       <c r="N43" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10883,7 +9901,6 @@
         <v>555</v>
       </c>
       <c r="N44" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10916,7 +9933,6 @@
         <v>115</v>
       </c>
       <c r="N45" t="e" vm="22">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10940,7 +9956,6 @@
         <v>557</v>
       </c>
       <c r="N46" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10973,7 +9988,6 @@
         <v>475</v>
       </c>
       <c r="N47" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11009,7 +10023,6 @@
         <v>122</v>
       </c>
       <c r="N48" t="e" vm="23">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11054,7 +10067,6 @@
         <v>1</v>
       </c>
       <c r="N49" t="e" vm="24">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O49">
@@ -11099,7 +10111,6 @@
         <v>1</v>
       </c>
       <c r="N50" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11138,7 +10149,6 @@
         <v>1</v>
       </c>
       <c r="N51" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11180,7 +10190,6 @@
         <v>475</v>
       </c>
       <c r="N52" t="e" vm="25">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O52">
@@ -11216,7 +10225,6 @@
         <v>136</v>
       </c>
       <c r="N53" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11261,7 +10269,6 @@
         <v>1</v>
       </c>
       <c r="N54" t="e" vm="26">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O54">
@@ -11309,7 +10316,6 @@
         <v>1</v>
       </c>
       <c r="N55" t="e" vm="27">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O55">
@@ -11348,7 +10354,6 @@
         <v>148</v>
       </c>
       <c r="N56" t="e" vm="28">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11393,11 +10398,10 @@
         <v>1</v>
       </c>
       <c r="N57" t="e" vm="20">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -11432,7 +10436,6 @@
         <v>152</v>
       </c>
       <c r="N58" t="e" vm="29">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11471,7 +10474,6 @@
         <v>1</v>
       </c>
       <c r="N59" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11504,7 +10506,6 @@
         <v>156</v>
       </c>
       <c r="N60" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11543,7 +10544,6 @@
         <v>479</v>
       </c>
       <c r="N61" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11582,7 +10582,6 @@
         <v>1</v>
       </c>
       <c r="N62" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11624,7 +10623,6 @@
         <v>1</v>
       </c>
       <c r="N63" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11666,11 +10664,10 @@
         <v>1</v>
       </c>
       <c r="N64" t="e" vm="21">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -11696,7 +10693,6 @@
         <v>384</v>
       </c>
       <c r="N65" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11729,7 +10725,6 @@
         <v>167</v>
       </c>
       <c r="N66" t="e" vm="6">
-        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11762,7 +10757,6 @@
         <v>170</v>
       </c>
       <c r="N67" t="e" vm="6">
-        <f t="shared" ref="N67:N130" si="1">_xlfn.IMAGE(K67,,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11804,7 +10798,6 @@
         <v>1</v>
       </c>
       <c r="N68" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11837,7 +10830,6 @@
         <v>480</v>
       </c>
       <c r="N69" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11873,7 +10865,6 @@
         <v>177</v>
       </c>
       <c r="N70" t="e" vm="30">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11918,11 +10909,10 @@
         <v>1</v>
       </c>
       <c r="N71" t="e" vm="17">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -11957,7 +10947,6 @@
         <v>181</v>
       </c>
       <c r="N72" t="e" vm="31">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11999,7 +10988,6 @@
         <v>1</v>
       </c>
       <c r="N73" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12041,11 +11029,10 @@
         <v>1</v>
       </c>
       <c r="N74" t="e" vm="16">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12071,7 +11058,6 @@
         <v>374</v>
       </c>
       <c r="N75" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12113,11 +11099,10 @@
         <v>1</v>
       </c>
       <c r="N76" t="e" vm="14">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12149,7 +11134,6 @@
         <v>184</v>
       </c>
       <c r="N77" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12191,11 +11175,10 @@
         <v>1</v>
       </c>
       <c r="N78" t="e" vm="7">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12236,11 +11219,10 @@
         <v>1</v>
       </c>
       <c r="N79" t="e" vm="16">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12275,7 +11257,6 @@
         <v>188</v>
       </c>
       <c r="N80" t="e" vm="32">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12302,7 +11283,6 @@
         <v>389</v>
       </c>
       <c r="N81" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12329,7 +11309,6 @@
         <v>390</v>
       </c>
       <c r="N82" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12368,7 +11347,6 @@
         <v>1</v>
       </c>
       <c r="N83" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12410,11 +11388,10 @@
         <v>1</v>
       </c>
       <c r="N84" t="e" vm="16">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12455,11 +11432,10 @@
         <v>1</v>
       </c>
       <c r="N85" t="e" vm="14">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12494,7 +11470,6 @@
         <v>194</v>
       </c>
       <c r="N86" t="e" vm="33">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12530,7 +11505,6 @@
         <v>198</v>
       </c>
       <c r="N87" t="e" vm="34">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12566,7 +11540,6 @@
         <v>202</v>
       </c>
       <c r="N88" t="e" vm="35">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12590,7 +11563,6 @@
         <v>602</v>
       </c>
       <c r="N89" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12626,7 +11598,6 @@
         <v>206</v>
       </c>
       <c r="N90" t="e" vm="36">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12650,7 +11621,6 @@
         <v>604</v>
       </c>
       <c r="N91" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12686,7 +11656,6 @@
         <v>210</v>
       </c>
       <c r="N92" t="e" vm="37">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12731,7 +11700,6 @@
         <v>1</v>
       </c>
       <c r="N93" t="e" vm="38">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O93">
@@ -12776,11 +11744,10 @@
         <v>1</v>
       </c>
       <c r="N94" t="e" vm="13">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12821,11 +11788,10 @@
         <v>1</v>
       </c>
       <c r="N95" t="e" vm="13">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12866,7 +11832,6 @@
         <v>1</v>
       </c>
       <c r="N96" t="e" vm="39">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O96">
@@ -12911,11 +11876,10 @@
         <v>1</v>
       </c>
       <c r="N97" t="e" vm="39">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12938,7 +11902,6 @@
         <v>611</v>
       </c>
       <c r="N98" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12980,11 +11943,10 @@
         <v>1</v>
       </c>
       <c r="N99" t="e" vm="39">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13019,7 +11981,6 @@
         <v>225</v>
       </c>
       <c r="N100" t="e" vm="40">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13052,7 +12013,6 @@
         <v>228</v>
       </c>
       <c r="N101" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13094,7 +12054,6 @@
         <v>475</v>
       </c>
       <c r="N102" t="e" vm="41">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O102">
@@ -13139,11 +12098,10 @@
         <v>1</v>
       </c>
       <c r="N103" t="e" vm="39">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13184,11 +12142,10 @@
         <v>1</v>
       </c>
       <c r="N104" t="e" vm="16">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13214,7 +12171,6 @@
         <v>374</v>
       </c>
       <c r="N105" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13250,7 +12206,6 @@
         <v>237</v>
       </c>
       <c r="N106" t="e" vm="42">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13283,7 +12238,6 @@
         <v>241</v>
       </c>
       <c r="N107" t="e" vm="43">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13316,7 +12270,6 @@
         <v>244</v>
       </c>
       <c r="N108" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13340,7 +12293,6 @@
         <v>622</v>
       </c>
       <c r="N109" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13382,11 +12334,10 @@
         <v>1</v>
       </c>
       <c r="N110" t="e" vm="7">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13418,7 +12369,6 @@
         <v>246</v>
       </c>
       <c r="N111" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13454,7 +12404,6 @@
         <v>251</v>
       </c>
       <c r="N112" t="e" vm="44">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13496,11 +12445,10 @@
         <v>475</v>
       </c>
       <c r="N113" t="e" vm="25">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13532,7 +12480,6 @@
         <v>473</v>
       </c>
       <c r="N114" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13574,7 +12521,6 @@
         <v>1</v>
       </c>
       <c r="N115" t="e" vm="45">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O115">
@@ -13610,7 +12556,6 @@
         <v>259</v>
       </c>
       <c r="N116" t="e" vm="46">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13643,7 +12588,6 @@
         <v>262</v>
       </c>
       <c r="N117" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13685,7 +12629,6 @@
         <v>1</v>
       </c>
       <c r="N118" t="e" vm="47">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O118">
@@ -13724,7 +12667,6 @@
         <v>269</v>
       </c>
       <c r="N119" t="e" vm="48">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13769,11 +12711,10 @@
         <v>1</v>
       </c>
       <c r="N120" t="e" vm="24">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13796,7 +12737,6 @@
         <v>634</v>
       </c>
       <c r="N121" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13829,7 +12769,6 @@
         <v>246</v>
       </c>
       <c r="N122" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13874,11 +12813,10 @@
         <v>1</v>
       </c>
       <c r="N123" t="e" vm="19">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13916,7 +12854,6 @@
         <v>481</v>
       </c>
       <c r="N124" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13949,7 +12886,6 @@
         <v>276</v>
       </c>
       <c r="N125" t="e" vm="49">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13982,7 +12918,6 @@
         <v>279</v>
       </c>
       <c r="N126" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14024,11 +12959,10 @@
         <v>1</v>
       </c>
       <c r="N127" t="e" vm="7">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14051,7 +12985,6 @@
         <v>641</v>
       </c>
       <c r="N128" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14084,7 +13017,6 @@
         <v>283</v>
       </c>
       <c r="N129" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14123,7 +13055,6 @@
         <v>1</v>
       </c>
       <c r="N130" t="e" vm="6">
-        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14165,7 +13096,6 @@
         <v>471</v>
       </c>
       <c r="N131" t="e" vm="50">
-        <f t="shared" ref="N131:N171" si="2">_xlfn.IMAGE(K131,,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O131">
@@ -14210,11 +13140,10 @@
         <v>1</v>
       </c>
       <c r="N132" t="e" vm="7">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14246,7 +13175,6 @@
         <v>292</v>
       </c>
       <c r="N133" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14270,7 +13198,6 @@
         <v>648</v>
       </c>
       <c r="N134" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14312,11 +13239,10 @@
         <v>1</v>
       </c>
       <c r="N135" t="e" vm="13">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14360,11 +13286,10 @@
         <v>1</v>
       </c>
       <c r="N136" t="e" vm="26">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14396,7 +13321,6 @@
         <v>292</v>
       </c>
       <c r="N137" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14420,7 +13344,6 @@
         <v>652</v>
       </c>
       <c r="N138" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14453,7 +13376,6 @@
         <v>297</v>
       </c>
       <c r="N139" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14486,7 +13408,6 @@
         <v>300</v>
       </c>
       <c r="N140" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14525,7 +13446,6 @@
         <v>1</v>
       </c>
       <c r="N141" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14549,7 +13469,6 @@
         <v>656</v>
       </c>
       <c r="N142" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14582,7 +13501,6 @@
         <v>305</v>
       </c>
       <c r="N143" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14618,7 +13536,6 @@
         <v>309</v>
       </c>
       <c r="N144" t="e" vm="51">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14651,7 +13568,6 @@
         <v>313</v>
       </c>
       <c r="N145" t="e" vm="52">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14675,7 +13591,6 @@
         <v>660</v>
       </c>
       <c r="N146" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14717,11 +13632,10 @@
         <v>1</v>
       </c>
       <c r="N147" t="e" vm="16">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14756,7 +13670,6 @@
         <v>251</v>
       </c>
       <c r="N148" t="e" vm="44">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14780,7 +13693,6 @@
         <v>663</v>
       </c>
       <c r="N149" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14825,11 +13737,10 @@
         <v>1</v>
       </c>
       <c r="N150" t="e" vm="38">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14861,7 +13772,6 @@
         <v>318</v>
       </c>
       <c r="N151" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -14903,11 +13813,10 @@
         <v>1</v>
       </c>
       <c r="N152" t="e" vm="38">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14951,11 +13860,10 @@
         <v>1</v>
       </c>
       <c r="N153" t="e" vm="38">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14999,11 +13907,10 @@
         <v>1</v>
       </c>
       <c r="N154" t="e" vm="26">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -15038,7 +13945,6 @@
         <v>323</v>
       </c>
       <c r="N155" t="e" vm="53">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15080,7 +13986,6 @@
         <v>1</v>
       </c>
       <c r="N156" t="e" vm="54">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O156">
@@ -15116,7 +14021,6 @@
         <v>330</v>
       </c>
       <c r="N157" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15158,11 +14062,10 @@
         <v>1</v>
       </c>
       <c r="N158" t="e" vm="13">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -15194,7 +14097,6 @@
         <v>333</v>
       </c>
       <c r="N159" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15239,11 +14141,10 @@
         <v>1</v>
       </c>
       <c r="N160" t="e" vm="26">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -15278,7 +14179,6 @@
         <v>337</v>
       </c>
       <c r="N161" t="e" vm="55">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15314,7 +14214,6 @@
         <v>341</v>
       </c>
       <c r="N162" t="e" vm="56">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15350,7 +14249,6 @@
         <v>345</v>
       </c>
       <c r="N163" t="e" vm="57">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15386,7 +14284,6 @@
         <v>349</v>
       </c>
       <c r="N164" t="e" vm="58">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15419,7 +14316,6 @@
         <v>352</v>
       </c>
       <c r="N165" t="e" vm="6">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15461,11 +14357,10 @@
         <v>1</v>
       </c>
       <c r="N166" t="e" vm="39">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -15506,11 +14401,10 @@
         <v>1</v>
       </c>
       <c r="N167" t="e" vm="7">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -15551,11 +14445,10 @@
         <v>1</v>
       </c>
       <c r="N168" t="e" vm="13">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -15590,7 +14483,6 @@
         <v>356</v>
       </c>
       <c r="N169" t="e" vm="59">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15632,11 +14524,10 @@
         <v>1</v>
       </c>
       <c r="N170" t="e" vm="16">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -15671,7 +14562,6 @@
         <v>360</v>
       </c>
       <c r="N171" t="e" vm="60">
-        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15679,8 +14569,9 @@
       <c r="L172"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N171" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O171" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15718,7 +14609,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="e" vm="61">
+      <c r="A2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B2" t="s">
@@ -15735,7 +14626,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="e" vm="62">
+      <c r="A3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="B3" t="s">
@@ -15752,7 +14643,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="e" vm="63">
+      <c r="A4" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="B4" t="s">
@@ -15769,7 +14660,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="e" vm="64">
+      <c r="A5" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="B5" t="s">
@@ -15783,7 +14674,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="e" vm="65">
+      <c r="A6" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="B6" t="s">
@@ -15817,7 +14708,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="e" vm="66">
+      <c r="A8" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B8" t="s">
@@ -15834,7 +14725,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="e" vm="63">
+      <c r="A9" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="B9" t="s">
@@ -15851,7 +14742,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="e" vm="67">
+      <c r="A10" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="B10" t="s">
@@ -15868,7 +14759,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="e" vm="68">
+      <c r="A11" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="B11" t="s">
@@ -15913,7 +14804,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="e" vm="69">
+      <c r="A14" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="B14" t="s">
@@ -15947,7 +14838,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="e" vm="70">
+      <c r="A16" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="B16" t="s">
@@ -15989,7 +14880,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="e" vm="71">
+      <c r="A19" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="B19" t="s">
@@ -16056,7 +14947,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="e" vm="66">
+      <c r="A24" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B24" t="s">
@@ -16073,7 +14964,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="e" vm="66">
+      <c r="A25" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B25" t="s">
@@ -16090,7 +14981,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="e" vm="72">
+      <c r="A26" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="B26" t="s">
@@ -16107,7 +14998,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="e" vm="73">
+      <c r="A27" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="B27" t="s">
@@ -16141,7 +15032,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="e" vm="74">
+      <c r="A29" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
       <c r="B29" t="s">
@@ -16158,7 +15049,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="e" vm="75">
+      <c r="A30" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="B30" t="s">
@@ -16225,7 +15116,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="e" vm="76">
+      <c r="A35" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
       <c r="B35" t="s">
@@ -16242,7 +15133,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="e" vm="77">
+      <c r="A36" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="B36" t="s">
@@ -16281,7 +15172,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="e" vm="78">
+      <c r="A39" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="B39" t="s">
@@ -16298,7 +15189,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="e" vm="79">
+      <c r="A40" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
       <c r="B40" t="s">
@@ -16315,7 +15206,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="e" vm="80">
+      <c r="A41" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="B41" t="s">
@@ -16332,7 +15223,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="e" vm="80">
+      <c r="A42" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="B42" t="s">
@@ -16374,7 +15265,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="e" vm="81">
+      <c r="A45" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
       <c r="B45" t="s">
@@ -16407,7 +15298,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="e" vm="82">
+      <c r="A48" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="B48" t="s">
@@ -16424,7 +15315,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="e" vm="83">
+      <c r="A49" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="B49" t="s">
@@ -16475,7 +15366,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="e" vm="84">
+      <c r="A52" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
       <c r="B52" t="s">
@@ -16509,7 +15400,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="e" vm="85">
+      <c r="A54" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="B54" t="s">
@@ -16526,7 +15417,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="e" vm="86">
+      <c r="A55" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
       <c r="B55" t="s">
@@ -16543,7 +15434,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="e" vm="87">
+      <c r="A56" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
       <c r="B56" t="s">
@@ -16560,7 +15451,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="e" vm="79">
+      <c r="A57" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
       <c r="B57" t="s">
@@ -16577,7 +15468,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="e" vm="88">
+      <c r="A58" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="B58" t="s">
@@ -16679,7 +15570,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="e" vm="80">
+      <c r="A64" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="B64" t="s">
@@ -16769,7 +15660,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="e" vm="89">
+      <c r="A70" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
       <c r="B70" t="s">
@@ -16786,7 +15677,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="e" vm="76">
+      <c r="A71" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
       <c r="B71" t="s">
@@ -16803,7 +15694,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="e" vm="90">
+      <c r="A72" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
       <c r="B72" t="s">
@@ -16837,7 +15728,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="e" vm="75">
+      <c r="A74" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="B74" t="s">
@@ -16865,7 +15756,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="e" vm="73">
+      <c r="A76" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="B76" t="s">
@@ -16899,7 +15790,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="e" vm="66">
+      <c r="A78" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B78" t="s">
@@ -16916,7 +15807,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="e" vm="75">
+      <c r="A79" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="B79" t="s">
@@ -16933,7 +15824,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="e" vm="91">
+      <c r="A80" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
       <c r="B80" t="s">
@@ -16989,7 +15880,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="e" vm="75">
+      <c r="A84" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="B84" t="s">
@@ -17006,7 +15897,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="e" vm="73">
+      <c r="A85" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="B85" t="s">
@@ -17023,7 +15914,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="e" vm="92">
+      <c r="A86" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
       <c r="B86" t="s">
@@ -17040,7 +15931,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="e" vm="93">
+      <c r="A87" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
       <c r="B87" t="s">
@@ -17057,7 +15948,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="e" vm="94">
+      <c r="A88" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
       <c r="B88" t="s">
@@ -17082,7 +15973,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="e" vm="95">
+      <c r="A90" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
       <c r="B90" t="s">
@@ -17107,7 +15998,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="e" vm="96">
+      <c r="A92" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
       <c r="B92" t="s">
@@ -17124,7 +16015,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="e" vm="97">
+      <c r="A93" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
       <c r="B93" t="s">
@@ -17141,7 +16032,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="e" vm="72">
+      <c r="A94" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="B94" t="s">
@@ -17158,7 +16049,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="e" vm="72">
+      <c r="A95" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="B95" t="s">
@@ -17175,7 +16066,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="e" vm="98">
+      <c r="A96" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="B96" s="10" t="s">
@@ -17192,7 +16083,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="e" vm="98">
+      <c r="A97" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -17217,7 +16108,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="e" vm="98">
+      <c r="A99" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -17234,7 +16125,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="e" vm="99">
+      <c r="A100" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
       <c r="B100" t="s">
@@ -17268,7 +16159,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="e" vm="100">
+      <c r="A102" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
       <c r="B102" t="s">
@@ -17285,7 +16176,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="e" vm="98">
+      <c r="A103" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -17302,7 +16193,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="e" vm="75">
+      <c r="A104" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="B104" t="s">
@@ -17330,7 +16221,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="e" vm="101">
+      <c r="A106" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
       <c r="B106" t="s">
@@ -17347,7 +16238,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="e" vm="102">
+      <c r="A107" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
       <c r="B107" t="s">
@@ -17386,7 +16277,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="e" vm="66">
+      <c r="A110" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B110" t="s">
@@ -17420,7 +16311,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="e" vm="103">
+      <c r="A112" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
       <c r="B112" t="s">
@@ -17437,7 +16328,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" t="e" vm="84">
+      <c r="A113" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
       <c r="B113" t="s">
@@ -17465,7 +16356,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="e" vm="104">
+      <c r="A115" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
       <c r="B115" t="s">
@@ -17482,7 +16373,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="e" vm="105">
+      <c r="A116" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
       <c r="B116" t="s">
@@ -17513,7 +16404,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="e" vm="106">
+      <c r="A118" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
       <c r="B118" t="s">
@@ -17530,7 +16421,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="e" vm="107">
+      <c r="A119" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
       <c r="B119" t="s">
@@ -17547,7 +16438,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="e" vm="83">
+      <c r="A120" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="B120" t="s">
@@ -17589,7 +16480,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="e" vm="78">
+      <c r="A123" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="B123" t="s">
@@ -17623,7 +16514,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="e" vm="108">
+      <c r="A125" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
       <c r="B125" t="s">
@@ -17654,7 +16545,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="e" vm="66">
+      <c r="A127" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B127" t="s">
@@ -17713,7 +16604,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="e" vm="109">
+      <c r="A131" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
       <c r="B131" t="s">
@@ -17730,7 +16621,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="e" vm="66">
+      <c r="A132" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B132" t="s">
@@ -17772,7 +16663,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="e" vm="72">
+      <c r="A135" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="B135" t="s">
@@ -17789,7 +16680,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="e" vm="85">
+      <c r="A136" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="B136" t="s">
@@ -17907,7 +16798,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="e" vm="110">
+      <c r="A144" t="e" vm="51">
         <v>#VALUE!</v>
       </c>
       <c r="B144" t="s">
@@ -17924,7 +16815,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="e" vm="111">
+      <c r="A145" t="e" vm="52">
         <v>#VALUE!</v>
       </c>
       <c r="B145" t="s">
@@ -17946,7 +16837,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="e" vm="75">
+      <c r="A147" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="B147" t="s">
@@ -17963,7 +16854,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="e" vm="103">
+      <c r="A148" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
       <c r="B148" t="s">
@@ -17988,7 +16879,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="e" vm="97">
+      <c r="A150" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
       <c r="B150" t="s">
@@ -18022,7 +16913,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="e" vm="97">
+      <c r="A152" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
       <c r="B152" t="s">
@@ -18039,7 +16930,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" t="e" vm="97">
+      <c r="A153" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
       <c r="B153" t="s">
@@ -18056,7 +16947,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="e" vm="85">
+      <c r="A154" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="B154" t="s">
@@ -18073,7 +16964,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="e" vm="112">
+      <c r="A155" t="e" vm="53">
         <v>#VALUE!</v>
       </c>
       <c r="B155" t="s">
@@ -18090,7 +16981,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="e" vm="113">
+      <c r="A156" t="e" vm="54">
         <v>#VALUE!</v>
       </c>
       <c r="B156" t="s">
@@ -18124,7 +17015,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="e" vm="72">
+      <c r="A158" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="B158" t="s">
@@ -18158,7 +17049,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" t="e" vm="85">
+      <c r="A160" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="B160" t="s">
@@ -18175,7 +17066,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="e" vm="114">
+      <c r="A161" t="e" vm="55">
         <v>#VALUE!</v>
       </c>
       <c r="B161" t="s">
@@ -18192,7 +17083,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" t="e" vm="115">
+      <c r="A162" t="e" vm="56">
         <v>#VALUE!</v>
       </c>
       <c r="B162" t="s">
@@ -18209,7 +17100,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="e" vm="116">
+      <c r="A163" t="e" vm="57">
         <v>#VALUE!</v>
       </c>
       <c r="B163" t="s">
@@ -18226,7 +17117,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="e" vm="117">
+      <c r="A164" t="e" vm="58">
         <v>#VALUE!</v>
       </c>
       <c r="B164" t="s">
@@ -18260,7 +17151,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="e" vm="98">
+      <c r="A166" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="B166" t="s">
@@ -18277,7 +17168,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="e" vm="66">
+      <c r="A167" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B167" t="s">
@@ -18294,7 +17185,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" t="e" vm="72">
+      <c r="A168" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="B168" t="s">
@@ -18311,7 +17202,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="e" vm="118">
+      <c r="A169" t="e" vm="59">
         <v>#VALUE!</v>
       </c>
       <c r="B169" t="s">
@@ -18328,7 +17219,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="e" vm="75">
+      <c r="A170" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="B170" t="s">
@@ -18345,7 +17236,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="e" vm="119">
+      <c r="A171" t="e" vm="60">
         <v>#VALUE!</v>
       </c>
       <c r="B171" t="s">
